--- a/SchemeIBPRME/SchemeIBPME.xlsx
+++ b/SchemeIBPRME/SchemeIBPME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,11 +568,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SS512</t>
+          <t>MNT159</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="C2" t="n">
         <v>20</v>
@@ -590,71 +590,71 @@
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000142235</v>
+        <v>6.3882e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004104289</v>
+        <v>0.000259936</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008303669</v>
+        <v>0.013897122</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005475753</v>
+        <v>0.003554594</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007045331</v>
+        <v>0.012611053</v>
       </c>
       <c r="M2" t="n">
-        <v>3.5757e-05</v>
+        <v>2.4222e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005017477</v>
+        <v>0.003568622</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00467794</v>
+        <v>0.003623443</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
       </c>
       <c r="Q2" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="R2" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="S2" t="n">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="T2" t="n">
-        <v>806</v>
+        <v>1082</v>
       </c>
       <c r="U2" t="n">
         <v>60</v>
       </c>
       <c r="V2" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W2" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="X2" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Y2" t="n">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="Z2" t="n">
-        <v>122</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SS512</t>
+          <t>MNT201</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>512</v>
       </c>
       <c r="C3" t="n">
         <v>20</v>
@@ -672,71 +672,71 @@
         <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000145557</v>
+        <v>7.1982e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004498923</v>
+        <v>0.000406223</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008382524000000001</v>
+        <v>0.022187289</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005470901</v>
+        <v>0.004916169</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007457298</v>
+        <v>0.016992679</v>
       </c>
       <c r="M3" t="n">
-        <v>3.6915e-05</v>
+        <v>2.4652e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005234931</v>
+        <v>0.004822623</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005174763</v>
+        <v>0.004878055</v>
       </c>
       <c r="P3" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="R3" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="S3" t="n">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="T3" t="n">
-        <v>850</v>
+        <v>1186</v>
       </c>
       <c r="U3" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="V3" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="W3" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="X3" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="Y3" t="n">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="Z3" t="n">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SS512</t>
+          <t>MNT224</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224</v>
+        <v>512</v>
       </c>
       <c r="C4" t="n">
         <v>20</v>
@@ -754,71 +754,71 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000137138</v>
+        <v>7.785500000000001e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003940746</v>
+        <v>0.000472068</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007651929</v>
+        <v>0.022555596</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004835578</v>
+        <v>0.006142231</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006158722</v>
+        <v>0.02092803</v>
       </c>
       <c r="M4" t="n">
-        <v>3.0794e-05</v>
+        <v>2.6733e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004439474</v>
+        <v>0.006281992</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004598222</v>
+        <v>0.006095359</v>
       </c>
       <c r="P4" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="R4" t="n">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="S4" t="n">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="T4" t="n">
-        <v>938</v>
+        <v>1226</v>
       </c>
       <c r="U4" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="V4" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="W4" t="n">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="X4" t="n">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="Y4" t="n">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="Z4" t="n">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SS512</t>
+          <t>BN254</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="C5" t="n">
         <v>20</v>
@@ -836,49 +836,49 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00014761</v>
+        <v>7.9423e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004166562</v>
+        <v>0.000608934</v>
       </c>
       <c r="J5" t="n">
-        <v>0.008041418999999999</v>
+        <v>0.002092859</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004894256</v>
+        <v>0.016003941</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006670613</v>
+        <v>0.016947217</v>
       </c>
       <c r="M5" t="n">
-        <v>3.1339e-05</v>
+        <v>4.2085e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004708236</v>
+        <v>0.016053555</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004504328</v>
+        <v>0.016145813</v>
       </c>
       <c r="P5" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="R5" t="n">
         <v>90</v>
       </c>
       <c r="S5" t="n">
-        <v>174</v>
+        <v>514</v>
       </c>
       <c r="T5" t="n">
-        <v>982</v>
+        <v>1158</v>
       </c>
       <c r="U5" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="V5" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="W5" t="n">
         <v>180</v>
@@ -887,10 +887,10 @@
         <v>180</v>
       </c>
       <c r="Y5" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Z5" t="n">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384</v>
+        <v>128</v>
       </c>
       <c r="C6" t="n">
         <v>20</v>
@@ -918,28 +918,28 @@
         <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000131079</v>
+        <v>6.1496e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003968572</v>
+        <v>0.002171299</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007367665</v>
+        <v>0.004286021</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004958447</v>
+        <v>0.0027127</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006839223</v>
+        <v>0.003596036</v>
       </c>
       <c r="M6" t="n">
-        <v>3.6413e-05</v>
+        <v>1.748e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>0.005098697</v>
+        <v>0.002679215</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005091344</v>
+        <v>0.002682068</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -954,7 +954,7 @@
         <v>174</v>
       </c>
       <c r="T6" t="n">
-        <v>1158</v>
+        <v>806</v>
       </c>
       <c r="U6" t="n">
         <v>60</v>
@@ -969,10 +969,10 @@
         <v>180</v>
       </c>
       <c r="Y6" t="n">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="Z6" t="n">
-        <v>186</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>512</v>
+        <v>160</v>
       </c>
       <c r="C7" t="n">
         <v>20</v>
@@ -1000,28 +1000,28 @@
         <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000126739</v>
+        <v>6.3879e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004126285</v>
+        <v>0.002187725</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008040221</v>
+        <v>0.004371527</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004805582</v>
+        <v>0.002755954</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006254522</v>
+        <v>0.003659594</v>
       </c>
       <c r="M7" t="n">
-        <v>4.1744e-05</v>
+        <v>1.9736e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005040011</v>
+        <v>0.002724833</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004896194</v>
+        <v>0.002719597</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>
@@ -1036,7 +1036,7 @@
         <v>174</v>
       </c>
       <c r="T7" t="n">
-        <v>1334</v>
+        <v>850</v>
       </c>
       <c r="U7" t="n">
         <v>60</v>
@@ -1051,9 +1051,337 @@
         <v>180</v>
       </c>
       <c r="Y7" t="n">
+        <v>240</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>224</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.9521e-05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.002163532</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.004312942</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002770659</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.003586838</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.7154e-05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.002797069</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.002735961</v>
+      </c>
+      <c r="P8" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>90</v>
+      </c>
+      <c r="R8" t="n">
+        <v>90</v>
+      </c>
+      <c r="S8" t="n">
+        <v>174</v>
+      </c>
+      <c r="T8" t="n">
+        <v>938</v>
+      </c>
+      <c r="U8" t="n">
+        <v>60</v>
+      </c>
+      <c r="V8" t="n">
+        <v>90</v>
+      </c>
+      <c r="W8" t="n">
+        <v>180</v>
+      </c>
+      <c r="X8" t="n">
+        <v>180</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>264</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>256</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.9573e-05</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.002144479</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.004304561</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00269816</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003568436</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.6793e-05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.002708652</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.002661772</v>
+      </c>
+      <c r="P9" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>90</v>
+      </c>
+      <c r="R9" t="n">
+        <v>90</v>
+      </c>
+      <c r="S9" t="n">
+        <v>174</v>
+      </c>
+      <c r="T9" t="n">
+        <v>982</v>
+      </c>
+      <c r="U9" t="n">
+        <v>60</v>
+      </c>
+      <c r="V9" t="n">
+        <v>90</v>
+      </c>
+      <c r="W9" t="n">
+        <v>180</v>
+      </c>
+      <c r="X9" t="n">
+        <v>180</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>276</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>384</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.0173e-05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.00215445</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.004294834</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.002702892</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.003573688</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.7372e-05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.002664078</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.002676942</v>
+      </c>
+      <c r="P10" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>90</v>
+      </c>
+      <c r="R10" t="n">
+        <v>90</v>
+      </c>
+      <c r="S10" t="n">
+        <v>174</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1158</v>
+      </c>
+      <c r="U10" t="n">
+        <v>60</v>
+      </c>
+      <c r="V10" t="n">
+        <v>90</v>
+      </c>
+      <c r="W10" t="n">
+        <v>180</v>
+      </c>
+      <c r="X10" t="n">
+        <v>180</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>324</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>512</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.993e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.002167309</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.004273899</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.002703908</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.00355034</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.8369e-05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.002736824</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.002787765</v>
+      </c>
+      <c r="P11" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>90</v>
+      </c>
+      <c r="R11" t="n">
+        <v>90</v>
+      </c>
+      <c r="S11" t="n">
+        <v>174</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1334</v>
+      </c>
+      <c r="U11" t="n">
+        <v>60</v>
+      </c>
+      <c r="V11" t="n">
+        <v>90</v>
+      </c>
+      <c r="W11" t="n">
+        <v>180</v>
+      </c>
+      <c r="X11" t="n">
+        <v>180</v>
+      </c>
+      <c r="Y11" t="n">
         <v>372</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z11" t="n">
         <v>218</v>
       </c>
     </row>

--- a/SchemeIBPRME/SchemeIBPME.xlsx
+++ b/SchemeIBPRME/SchemeIBPME.xlsx
@@ -590,28 +590,28 @@
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>6.3882e-05</v>
+        <v>7.1482e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000259936</v>
+        <v>0.000270373</v>
       </c>
       <c r="J2" t="n">
-        <v>0.013897122</v>
+        <v>0.015870502</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003554594</v>
+        <v>0.003645964</v>
       </c>
       <c r="L2" t="n">
-        <v>0.012611053</v>
+        <v>0.012724559</v>
       </c>
       <c r="M2" t="n">
-        <v>2.4222e-05</v>
+        <v>3.1614e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003568622</v>
+        <v>0.003671431</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003623443</v>
+        <v>0.003638364</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -672,28 +672,28 @@
         <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>7.1982e-05</v>
+        <v>7.5083e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000406223</v>
+        <v>0.000397747</v>
       </c>
       <c r="J3" t="n">
-        <v>0.022187289</v>
+        <v>0.021611727</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004916169</v>
+        <v>0.004838457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.016992679</v>
+        <v>0.018918817</v>
       </c>
       <c r="M3" t="n">
-        <v>2.4652e-05</v>
+        <v>3.2829e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004822623</v>
+        <v>0.004876077</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004878055</v>
+        <v>0.004920136</v>
       </c>
       <c r="P3" t="n">
         <v>34</v>
@@ -754,28 +754,28 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>7.785500000000001e-05</v>
+        <v>7.7122e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000472068</v>
+        <v>0.000472388</v>
       </c>
       <c r="J4" t="n">
-        <v>0.022555596</v>
+        <v>0.025493372</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006142231</v>
+        <v>0.005906417</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02092803</v>
+        <v>0.020153278</v>
       </c>
       <c r="M4" t="n">
-        <v>2.6733e-05</v>
+        <v>3.0805e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.006281992</v>
+        <v>0.005904451</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006095359</v>
+        <v>0.005867765</v>
       </c>
       <c r="P4" t="n">
         <v>42</v>
@@ -836,28 +836,28 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>7.9423e-05</v>
+        <v>8.8342e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000608934</v>
+        <v>0.000583326</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002092859</v>
+        <v>0.002020508</v>
       </c>
       <c r="K5" t="n">
-        <v>0.016003941</v>
+        <v>0.015496293</v>
       </c>
       <c r="L5" t="n">
-        <v>0.016947217</v>
+        <v>0.016504021</v>
       </c>
       <c r="M5" t="n">
-        <v>4.2085e-05</v>
+        <v>4.9539e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.016053555</v>
+        <v>0.015737477</v>
       </c>
       <c r="O5" t="n">
-        <v>0.016145813</v>
+        <v>0.016198976</v>
       </c>
       <c r="P5" t="n">
         <v>46</v>
@@ -918,28 +918,28 @@
         <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>6.1496e-05</v>
+        <v>6.0456e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002171299</v>
+        <v>0.002125502</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004286021</v>
+        <v>0.004263456</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0027127</v>
+        <v>0.00268231</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003596036</v>
+        <v>0.00358268</v>
       </c>
       <c r="M6" t="n">
-        <v>1.748e-05</v>
+        <v>1.9332e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002679215</v>
+        <v>0.002654569</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002682068</v>
+        <v>0.002637289</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -1000,28 +1000,28 @@
         <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>6.3879e-05</v>
+        <v>5.6719e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002187725</v>
+        <v>0.002098137</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004371527</v>
+        <v>0.004203727</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002755954</v>
+        <v>0.002763527</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003659594</v>
+        <v>0.003501874</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9736e-05</v>
+        <v>1.707e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002724833</v>
+        <v>0.002629658</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002719597</v>
+        <v>0.002599208</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>
@@ -1082,28 +1082,28 @@
         <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>5.9521e-05</v>
+        <v>6.2067e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002163532</v>
+        <v>0.002141216</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004312942</v>
+        <v>0.004217813</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002770659</v>
+        <v>0.002693109</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003586838</v>
+        <v>0.003541838</v>
       </c>
       <c r="M8" t="n">
-        <v>1.7154e-05</v>
+        <v>2.6814e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002797069</v>
+        <v>0.00273311</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002735961</v>
+        <v>0.002640865</v>
       </c>
       <c r="P8" t="n">
         <v>30</v>
@@ -1164,28 +1164,28 @@
         <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>5.9573e-05</v>
+        <v>5.8163e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002144479</v>
+        <v>0.002086541</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004304561</v>
+        <v>0.004139625</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00269816</v>
+        <v>0.002589745</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003568436</v>
+        <v>0.003453478</v>
       </c>
       <c r="M9" t="n">
-        <v>1.6793e-05</v>
+        <v>1.7142e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002708652</v>
+        <v>0.002620552</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002661772</v>
+        <v>0.00255839</v>
       </c>
       <c r="P9" t="n">
         <v>30</v>
@@ -1246,28 +1246,28 @@
         <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>6.0173e-05</v>
+        <v>5.7103e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00215445</v>
+        <v>0.002033969</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004294834</v>
+        <v>0.004064315</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002702892</v>
+        <v>0.002561212</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003573688</v>
+        <v>0.003399535</v>
       </c>
       <c r="M10" t="n">
-        <v>1.7372e-05</v>
+        <v>1.9689e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002664078</v>
+        <v>0.002545882</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002676942</v>
+        <v>0.002530793</v>
       </c>
       <c r="P10" t="n">
         <v>30</v>
@@ -1328,28 +1328,28 @@
         <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>5.993e-05</v>
+        <v>5.8893e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002167309</v>
+        <v>0.002104048</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004273899</v>
+        <v>0.004219938</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002703908</v>
+        <v>0.002630668</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00355034</v>
+        <v>0.003575015</v>
       </c>
       <c r="M11" t="n">
-        <v>1.8369e-05</v>
+        <v>2.1531e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002736824</v>
+        <v>0.002626725</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002787765</v>
+        <v>0.002603983</v>
       </c>
       <c r="P11" t="n">
         <v>30</v>

--- a/SchemeIBPRME/SchemeIBPME.xlsx
+++ b/SchemeIBPRME/SchemeIBPME.xlsx
@@ -590,28 +590,28 @@
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>7.1482e-05</v>
+        <v>6.860900000000001e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000270373</v>
+        <v>0.000255251</v>
       </c>
       <c r="J2" t="n">
-        <v>0.015870502</v>
+        <v>0.01653647</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003645964</v>
+        <v>0.00352755</v>
       </c>
       <c r="L2" t="n">
-        <v>0.012724559</v>
+        <v>0.01241364</v>
       </c>
       <c r="M2" t="n">
-        <v>3.1614e-05</v>
+        <v>2.9994e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003671431</v>
+        <v>0.003505618</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003638364</v>
+        <v>0.003593362</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -672,28 +672,28 @@
         <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>7.5083e-05</v>
+        <v>8.385699999999999e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000397747</v>
+        <v>0.000411723</v>
       </c>
       <c r="J3" t="n">
-        <v>0.021611727</v>
+        <v>0.02116953</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004838457</v>
+        <v>0.005067306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.018918817</v>
+        <v>0.020505796</v>
       </c>
       <c r="M3" t="n">
-        <v>3.2829e-05</v>
+        <v>3.4554e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004876077</v>
+        <v>0.004987576</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004920136</v>
+        <v>0.005026189</v>
       </c>
       <c r="P3" t="n">
         <v>34</v>
@@ -754,28 +754,28 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>7.7122e-05</v>
+        <v>9.6983e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000472388</v>
+        <v>0.000521092</v>
       </c>
       <c r="J4" t="n">
-        <v>0.025493372</v>
+        <v>0.026432216</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005906417</v>
+        <v>0.006517908</v>
       </c>
       <c r="L4" t="n">
-        <v>0.020153278</v>
+        <v>0.022081446</v>
       </c>
       <c r="M4" t="n">
-        <v>3.0805e-05</v>
+        <v>3.8316e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005904451</v>
+        <v>0.006360979</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005867765</v>
+        <v>0.006193773</v>
       </c>
       <c r="P4" t="n">
         <v>42</v>
@@ -836,28 +836,28 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>8.8342e-05</v>
+        <v>8.9891e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000583326</v>
+        <v>0.000606401</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002020508</v>
+        <v>0.002066459</v>
       </c>
       <c r="K5" t="n">
-        <v>0.015496293</v>
+        <v>0.015741453</v>
       </c>
       <c r="L5" t="n">
-        <v>0.016504021</v>
+        <v>0.016444896</v>
       </c>
       <c r="M5" t="n">
-        <v>4.9539e-05</v>
+        <v>4.7392e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.015737477</v>
+        <v>0.015638405</v>
       </c>
       <c r="O5" t="n">
-        <v>0.016198976</v>
+        <v>0.015606399</v>
       </c>
       <c r="P5" t="n">
         <v>46</v>
@@ -918,28 +918,28 @@
         <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>6.0456e-05</v>
+        <v>6.1009e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002125502</v>
+        <v>0.002110064</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004263456</v>
+        <v>0.004219011</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00268231</v>
+        <v>0.002723076</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00358268</v>
+        <v>0.003513622</v>
       </c>
       <c r="M6" t="n">
-        <v>1.9332e-05</v>
+        <v>1.7982e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002654569</v>
+        <v>0.002625095</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002637289</v>
+        <v>0.002609143</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -1000,28 +1000,28 @@
         <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>5.6719e-05</v>
+        <v>5.9038e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002098137</v>
+        <v>0.002116369</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004203727</v>
+        <v>0.00423775</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002763527</v>
+        <v>0.002677484</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003501874</v>
+        <v>0.003646114</v>
       </c>
       <c r="M7" t="n">
-        <v>1.707e-05</v>
+        <v>1.6931e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002629658</v>
+        <v>0.002655057</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002599208</v>
+        <v>0.002715215</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>
@@ -1082,28 +1082,28 @@
         <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2067e-05</v>
+        <v>6.4199e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002141216</v>
+        <v>0.002140925</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004217813</v>
+        <v>0.004247063</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002693109</v>
+        <v>0.002679996</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003541838</v>
+        <v>0.003622137</v>
       </c>
       <c r="M8" t="n">
-        <v>2.6814e-05</v>
+        <v>2.8973e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00273311</v>
+        <v>0.002628815</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002640865</v>
+        <v>0.002683563</v>
       </c>
       <c r="P8" t="n">
         <v>30</v>
@@ -1164,28 +1164,28 @@
         <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>5.8163e-05</v>
+        <v>6.2766e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002086541</v>
+        <v>0.002092334</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004139625</v>
+        <v>0.004222981</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002589745</v>
+        <v>0.002651497</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003453478</v>
+        <v>0.003473829</v>
       </c>
       <c r="M9" t="n">
-        <v>1.7142e-05</v>
+        <v>1.7111e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002620552</v>
+        <v>0.002627098</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00255839</v>
+        <v>0.002587209</v>
       </c>
       <c r="P9" t="n">
         <v>30</v>
@@ -1246,28 +1246,28 @@
         <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>5.7103e-05</v>
+        <v>6.519e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002033969</v>
+        <v>0.00220553</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004064315</v>
+        <v>0.00419112</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002561212</v>
+        <v>0.002654949</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003399535</v>
+        <v>0.00355982</v>
       </c>
       <c r="M10" t="n">
-        <v>1.9689e-05</v>
+        <v>2.0293e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002545882</v>
+        <v>0.002645851</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002530793</v>
+        <v>0.002609102</v>
       </c>
       <c r="P10" t="n">
         <v>30</v>
@@ -1328,28 +1328,28 @@
         <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>5.8893e-05</v>
+        <v>6.0507e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002104048</v>
+        <v>0.002205866</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004219938</v>
+        <v>0.004330745</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002630668</v>
+        <v>0.002723407</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003575015</v>
+        <v>0.003611375</v>
       </c>
       <c r="M11" t="n">
-        <v>2.1531e-05</v>
+        <v>2.1767e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002626725</v>
+        <v>0.002665668</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002603983</v>
+        <v>0.002649958</v>
       </c>
       <c r="P11" t="n">
         <v>30</v>

--- a/SchemeIBPRME/SchemeIBPME.xlsx
+++ b/SchemeIBPRME/SchemeIBPME.xlsx
@@ -590,28 +590,28 @@
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>6.860900000000001e-05</v>
+        <v>6.1101e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000255251</v>
+        <v>0.000246528</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01653647</v>
+        <v>0.013329763</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00352755</v>
+        <v>0.003479002</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01241364</v>
+        <v>0.013357339</v>
       </c>
       <c r="M2" t="n">
-        <v>2.9994e-05</v>
+        <v>2.7903e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003505618</v>
+        <v>0.00349867</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003593362</v>
+        <v>0.003386131</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -672,28 +672,28 @@
         <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>8.385699999999999e-05</v>
+        <v>6.750200000000001e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000411723</v>
+        <v>0.000387091</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02116953</v>
+        <v>0.025181293</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005067306</v>
+        <v>0.004625868</v>
       </c>
       <c r="L3" t="n">
-        <v>0.020505796</v>
+        <v>0.02130158</v>
       </c>
       <c r="M3" t="n">
-        <v>3.4554e-05</v>
+        <v>2.9387e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004987576</v>
+        <v>0.004726279</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005026189</v>
+        <v>0.004493028</v>
       </c>
       <c r="P3" t="n">
         <v>34</v>
@@ -754,28 +754,28 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>9.6983e-05</v>
+        <v>7.477199999999999e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000521092</v>
+        <v>0.000442306</v>
       </c>
       <c r="J4" t="n">
-        <v>0.026432216</v>
+        <v>0.02673754</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006517908</v>
+        <v>0.005601887</v>
       </c>
       <c r="L4" t="n">
-        <v>0.022081446</v>
+        <v>0.019882196</v>
       </c>
       <c r="M4" t="n">
-        <v>3.8316e-05</v>
+        <v>2.7872e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.006360979</v>
+        <v>0.005571255</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006193773</v>
+        <v>0.005547049</v>
       </c>
       <c r="P4" t="n">
         <v>42</v>
@@ -836,28 +836,28 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>8.9891e-05</v>
+        <v>7.6123e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000606401</v>
+        <v>0.000543895</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002066459</v>
+        <v>0.001892302</v>
       </c>
       <c r="K5" t="n">
-        <v>0.015741453</v>
+        <v>0.014583532</v>
       </c>
       <c r="L5" t="n">
-        <v>0.016444896</v>
+        <v>0.015380516</v>
       </c>
       <c r="M5" t="n">
-        <v>4.7392e-05</v>
+        <v>4.2571e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.015638405</v>
+        <v>0.014661036</v>
       </c>
       <c r="O5" t="n">
-        <v>0.015606399</v>
+        <v>0.014689744</v>
       </c>
       <c r="P5" t="n">
         <v>46</v>
@@ -918,28 +918,28 @@
         <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>6.1009e-05</v>
+        <v>5.5665e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002110064</v>
+        <v>0.002059161</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004219011</v>
+        <v>0.004075254</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002723076</v>
+        <v>0.00257521</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003513622</v>
+        <v>0.003414088</v>
       </c>
       <c r="M6" t="n">
-        <v>1.7982e-05</v>
+        <v>1.641e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002625095</v>
+        <v>0.00254895</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002609143</v>
+        <v>0.002566696</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -1000,28 +1000,28 @@
         <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>5.9038e-05</v>
+        <v>5.5698e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002116369</v>
+        <v>0.002038009</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00423775</v>
+        <v>0.004066817</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002677484</v>
+        <v>0.002536705</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003646114</v>
+        <v>0.003403758</v>
       </c>
       <c r="M7" t="n">
-        <v>1.6931e-05</v>
+        <v>1.5579e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002655057</v>
+        <v>0.002505007</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002715215</v>
+        <v>0.002499659</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>
@@ -1082,28 +1082,28 @@
         <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4199e-05</v>
+        <v>5.7152e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002140925</v>
+        <v>0.002078754</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004247063</v>
+        <v>0.004167785</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002679996</v>
+        <v>0.00264967</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003622137</v>
+        <v>0.003498812</v>
       </c>
       <c r="M8" t="n">
-        <v>2.8973e-05</v>
+        <v>2.4533e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002628815</v>
+        <v>0.002558373</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002683563</v>
+        <v>0.002628785</v>
       </c>
       <c r="P8" t="n">
         <v>30</v>
@@ -1164,28 +1164,28 @@
         <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2766e-05</v>
+        <v>5.5696e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002092334</v>
+        <v>0.002005205</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004222981</v>
+        <v>0.004023375</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002651497</v>
+        <v>0.00253355</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003473829</v>
+        <v>0.003340774</v>
       </c>
       <c r="M9" t="n">
-        <v>1.7111e-05</v>
+        <v>1.5791e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002627098</v>
+        <v>0.002531707</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002587209</v>
+        <v>0.002485291</v>
       </c>
       <c r="P9" t="n">
         <v>30</v>
@@ -1246,28 +1246,28 @@
         <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>6.519e-05</v>
+        <v>5.5051e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00220553</v>
+        <v>0.002041639</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00419112</v>
+        <v>0.004154816</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002654949</v>
+        <v>0.002574839</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00355982</v>
+        <v>0.003387249</v>
       </c>
       <c r="M10" t="n">
-        <v>2.0293e-05</v>
+        <v>2.0121e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002645851</v>
+        <v>0.002534382</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002609102</v>
+        <v>0.002551722</v>
       </c>
       <c r="P10" t="n">
         <v>30</v>
@@ -1328,28 +1328,28 @@
         <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>6.0507e-05</v>
+        <v>5.675e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002205866</v>
+        <v>0.00201718</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004330745</v>
+        <v>0.004060944</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002723407</v>
+        <v>0.002542967</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003611375</v>
+        <v>0.003399258</v>
       </c>
       <c r="M11" t="n">
-        <v>2.1767e-05</v>
+        <v>2.0351e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002665668</v>
+        <v>0.002531049</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002649958</v>
+        <v>0.002515769</v>
       </c>
       <c r="P11" t="n">
         <v>30</v>

--- a/SchemeIBPRME/SchemeIBPME.xlsx
+++ b/SchemeIBPRME/SchemeIBPME.xlsx
@@ -575,43 +575,43 @@
         <v>512</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>6.1101e-05</v>
+        <v>6.8746e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000246528</v>
+        <v>0.000263088</v>
       </c>
       <c r="J2" t="n">
-        <v>0.013329763</v>
+        <v>0.016234966</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003479002</v>
+        <v>0.003631685</v>
       </c>
       <c r="L2" t="n">
-        <v>0.013357339</v>
+        <v>0.013699946</v>
       </c>
       <c r="M2" t="n">
-        <v>2.7903e-05</v>
+        <v>3.0218e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00349867</v>
+        <v>0.003624373</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003386131</v>
+        <v>0.003589875</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -657,43 +657,43 @@
         <v>512</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>6.750200000000001e-05</v>
+        <v>7.2495e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000387091</v>
+        <v>0.000389045</v>
       </c>
       <c r="J3" t="n">
-        <v>0.025181293</v>
+        <v>0.022073145</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004625868</v>
+        <v>0.004668357</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02130158</v>
+        <v>0.01875366</v>
       </c>
       <c r="M3" t="n">
-        <v>2.9387e-05</v>
+        <v>3.5333e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004726279</v>
+        <v>0.004633955</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004493028</v>
+        <v>0.004626912</v>
       </c>
       <c r="P3" t="n">
         <v>34</v>
@@ -739,43 +739,43 @@
         <v>512</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>7.477199999999999e-05</v>
+        <v>7.939400000000001e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000442306</v>
+        <v>0.000482139</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02673754</v>
+        <v>0.027799975</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005601887</v>
+        <v>0.005967723</v>
       </c>
       <c r="L4" t="n">
-        <v>0.019882196</v>
+        <v>0.021667688</v>
       </c>
       <c r="M4" t="n">
-        <v>2.7872e-05</v>
+        <v>3.0967e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005571255</v>
+        <v>0.006004321</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005547049</v>
+        <v>0.005963218</v>
       </c>
       <c r="P4" t="n">
         <v>42</v>
@@ -821,43 +821,43 @@
         <v>512</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6123e-05</v>
+        <v>8.5374e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000543895</v>
+        <v>0.000578457</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001892302</v>
+        <v>0.001996903</v>
       </c>
       <c r="K5" t="n">
-        <v>0.014583532</v>
+        <v>0.015618228</v>
       </c>
       <c r="L5" t="n">
-        <v>0.015380516</v>
+        <v>0.016551083</v>
       </c>
       <c r="M5" t="n">
-        <v>4.2571e-05</v>
+        <v>4.7602e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.014661036</v>
+        <v>0.015711686</v>
       </c>
       <c r="O5" t="n">
-        <v>0.014689744</v>
+        <v>0.015736407</v>
       </c>
       <c r="P5" t="n">
         <v>46</v>
@@ -903,43 +903,43 @@
         <v>128</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5665e-05</v>
+        <v>6.0164e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002059161</v>
+        <v>0.002121717</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004075254</v>
+        <v>0.004239612</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00257521</v>
+        <v>0.002668019</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003414088</v>
+        <v>0.003501233</v>
       </c>
       <c r="M6" t="n">
-        <v>1.641e-05</v>
+        <v>1.7667e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00254895</v>
+        <v>0.002617868</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002566696</v>
+        <v>0.002619989</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -985,43 +985,43 @@
         <v>160</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5698e-05</v>
+        <v>5.954e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002038009</v>
+        <v>0.002111892</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004066817</v>
+        <v>0.004217942</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002536705</v>
+        <v>0.002646217</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003403758</v>
+        <v>0.003527835</v>
       </c>
       <c r="M7" t="n">
-        <v>1.5579e-05</v>
+        <v>1.9571e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002505007</v>
+        <v>0.002634666</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002499659</v>
+        <v>0.002609958</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>
@@ -1067,43 +1067,43 @@
         <v>224</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>5.7152e-05</v>
+        <v>6.1386e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002078754</v>
+        <v>0.002237098</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004167785</v>
+        <v>0.004476636</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00264967</v>
+        <v>0.002819279</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003498812</v>
+        <v>0.003732945</v>
       </c>
       <c r="M8" t="n">
-        <v>2.4533e-05</v>
+        <v>1.8265e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002558373</v>
+        <v>0.002768734</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002628785</v>
+        <v>0.002765829</v>
       </c>
       <c r="P8" t="n">
         <v>30</v>
@@ -1149,43 +1149,43 @@
         <v>256</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5696e-05</v>
+        <v>6.3117e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002005205</v>
+        <v>0.002258458</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004023375</v>
+        <v>0.004480016</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00253355</v>
+        <v>0.002841916</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003340774</v>
+        <v>0.003745009</v>
       </c>
       <c r="M9" t="n">
-        <v>1.5791e-05</v>
+        <v>1.8262e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002531707</v>
+        <v>0.002785464</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002485291</v>
+        <v>0.002790383</v>
       </c>
       <c r="P9" t="n">
         <v>30</v>
@@ -1231,43 +1231,43 @@
         <v>384</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>5.5051e-05</v>
+        <v>6.3545e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002041639</v>
+        <v>0.002276132</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004154816</v>
+        <v>0.00455918</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002574839</v>
+        <v>0.002876831</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003387249</v>
+        <v>0.003790374</v>
       </c>
       <c r="M10" t="n">
-        <v>2.0121e-05</v>
+        <v>2.2599e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002534382</v>
+        <v>0.002846462</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002551722</v>
+        <v>0.002825619</v>
       </c>
       <c r="P10" t="n">
         <v>30</v>
@@ -1313,43 +1313,43 @@
         <v>512</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>5.675e-05</v>
+        <v>6.2493e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00201718</v>
+        <v>0.002259625</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004060944</v>
+        <v>0.004501311</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002542967</v>
+        <v>0.00283582</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003399258</v>
+        <v>0.003762028</v>
       </c>
       <c r="M11" t="n">
-        <v>2.0351e-05</v>
+        <v>2.3115e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002531049</v>
+        <v>0.002801087</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002515769</v>
+        <v>0.002803019</v>
       </c>
       <c r="P11" t="n">
         <v>30</v>
